--- a/Guia Definicao da Arquitetura - Atividade.xlsx
+++ b/Guia Definicao da Arquitetura - Atividade.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26130"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\SPTech\Acadêmico\2023\2023 1\Disciplinas\3ADS\Engenharia de Software\Aulas\Aula 7\Atividade\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://bandteccom-my.sharepoint.com/personal/maryanna_silva_sptech_school/Documents/Documents/SPTech - 3º Semestre/PROJETO - CAR CROWD SYSTEM/Documentacao-CCS/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B8428B78-A2F4-47F6-93DB-BF6B9E13E360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="6" documentId="8_{B8428B78-A2F4-47F6-93DB-BF6B9E13E360}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2C845211-9A0A-49CE-8262-C9AAD847C32F}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11760" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Guia de Engenharia v4" sheetId="3" r:id="rId1"/>
@@ -901,7 +901,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{036DB22A-6FFA-4CD0-A3AA-AF0DD32AFF0D}">
   <dimension ref="B1:F34"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="56" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
   <cols>
